--- a/resources/DSM_Webmail_Excel_Data_File.xlsx
+++ b/resources/DSM_Webmail_Excel_Data_File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OITWASKETEME\IdeaProjects\WebMail_DSM_Automation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE01B7D-3D38-4C0A-A2AB-7B0714528776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB8BF65-11D0-4BA6-8460-67E86B3360A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{2E790A17-BDDB-4263-B4F2-E8F43E446407}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="13" xr2:uid="{2E790A17-BDDB-4263-B4F2-E8F43E446407}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="155">
   <si>
     <t>Browser</t>
   </si>
@@ -416,106 +416,109 @@
     <t>Manage Removed Users</t>
   </si>
   <si>
+    <t>Test Subject 21 CCD Attach</t>
+  </si>
+  <si>
+    <t>chdrone</t>
+  </si>
+  <si>
+    <t>chdrzzztestpateint</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Demo Parent Test 1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Manual Account Creation</t>
+  </si>
+  <si>
+    <t>ephrem.ketema@vademo.stagingcernerdirect.com</t>
+  </si>
+  <si>
+    <t>Ephrem</t>
+  </si>
+  <si>
+    <t>Getachew</t>
+  </si>
+  <si>
+    <t>Ketema</t>
+  </si>
+  <si>
+    <t>571-619-3116</t>
+  </si>
+  <si>
+    <t>2251 Eisenhower</t>
+  </si>
+  <si>
+    <t>Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandria </t>
+  </si>
+  <si>
+    <t>Virgina</t>
+  </si>
+  <si>
+    <t>22314</t>
+  </si>
+  <si>
+    <t>medical center</t>
+  </si>
+  <si>
+    <t>ephrem.ketema@va.gov</t>
+  </si>
+  <si>
+    <t>Ephrem.ketema</t>
+  </si>
+  <si>
+    <t>2251 Eisenhower ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexanderia </t>
+  </si>
+  <si>
+    <t>Email with No Attachement</t>
+  </si>
+  <si>
+    <t>Test email with attachment</t>
+  </si>
+  <si>
+    <t>C:\Users\OITWASKETEME\IdeaProjects\WebMail_DSM_Automation\resources\test.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\OITWASKETEME\IdeaProjects\WebMail_DSM_Automation\resources\test.pdf</t>
+  </si>
+  <si>
+    <t>NWHINTWO</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
     <t>NWHINTHREE</t>
   </si>
   <si>
-    <t>Test Subject 21 CCD Attach</t>
-  </si>
-  <si>
-    <t>NWHINNINE</t>
-  </si>
-  <si>
-    <t>chdrone</t>
-  </si>
-  <si>
-    <t>chdrzzztestpateint</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>0009</t>
-  </si>
-  <si>
-    <t>Test Body 1</t>
-  </si>
-  <si>
-    <t>Test Body 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Body 3 </t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>Demo Parent Test 1</t>
-  </si>
-  <si>
-    <t>Demo Parent Test 2</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Manual Account Creation</t>
-  </si>
-  <si>
-    <t>ephrem.ketema@vademo.stagingcernerdirect.com</t>
-  </si>
-  <si>
-    <t>Ephrem</t>
-  </si>
-  <si>
-    <t>Getachew</t>
-  </si>
-  <si>
-    <t>Ketema</t>
-  </si>
-  <si>
-    <t>571-619-3116</t>
-  </si>
-  <si>
-    <t>2251 Eisenhower</t>
-  </si>
-  <si>
-    <t>Ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandria </t>
-  </si>
-  <si>
-    <t>Virgina</t>
-  </si>
-  <si>
-    <t>22314</t>
-  </si>
-  <si>
-    <t>medical center</t>
-  </si>
-  <si>
-    <t>ephrem.ketema@va.gov</t>
-  </si>
-  <si>
-    <t>Ephrem.ketema</t>
-  </si>
-  <si>
-    <t>2251 Eisenhower ave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexanderia </t>
-  </si>
-  <si>
-    <t>Email with No Attachement</t>
-  </si>
-  <si>
-    <t>Test email with attachment</t>
-  </si>
-  <si>
-    <t>C:\Users\OITWASKETEME\IdeaProjects\WebMail_DSM_Automation\resources\test.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\OITWASKETEME\IdeaProjects\WebMail_DSM_Automation\resources\test.pdf</t>
+    <t>User try to verify on Adding CCd file on the email attachement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second attempt to attach CCD file along with the email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third attempt to Attach CCD along with the email body  </t>
+  </si>
+  <si>
+    <t>Demo Parent user 1</t>
+  </si>
+  <si>
+    <t>Demo Parent user 2</t>
   </si>
 </sst>
 </file>
@@ -2649,7 +2652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA57B41A-8829-4EED-81E0-91125930B30D}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -2728,13 +2731,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E2" s="47" t="s">
         <v>63</v>
@@ -2749,34 +2752,34 @@
         <v>66</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K2" s="47" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N2" s="47" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O2" s="47" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="P2" s="47" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Q2" s="47" t="s">
         <v>68</v>
       </c>
       <c r="R2" s="47" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="S2" s="47" t="s">
         <v>80</v>
@@ -2910,7 +2913,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>3</v>
@@ -2924,7 +2927,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>3</v>
@@ -3019,7 +3022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3006B032-DB2A-40DA-8218-3EC4458CCE7D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
@@ -3177,7 +3180,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>3</v>
@@ -3200,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>2</v>
@@ -3281,33 +3284,33 @@
         <v>3</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="47" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G2" s="47" t="s">
         <v>66</v>
       </c>
       <c r="H2" s="47"/>
       <c r="I2" s="47" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K2" s="47" t="s">
         <v>99</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -3398,17 +3401,17 @@
         <v>3</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="47" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G2" s="47" t="s">
         <v>66</v>
@@ -3637,27 +3640,27 @@
         <v>3</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="29" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
@@ -3667,23 +3670,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -3755,23 +3758,23 @@
         <v>3</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -4029,7 +4032,7 @@
         <v>119</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -4158,23 +4161,23 @@
         <v>3</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="29" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="15"/>
       <c r="H2" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>20</v>
@@ -4188,17 +4191,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>17</v>
@@ -4285,23 +4288,23 @@
         <v>3</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>22</v>
@@ -4348,8 +4351,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4370,7 +4373,7 @@
     <col min="15" max="15" width="7.7265625" style="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.81640625" style="19" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.1796875" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.7265625" style="18" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.26953125" style="18" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
@@ -4439,7 +4442,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -4453,7 +4456,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>28</v>
@@ -4465,7 +4468,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -4473,7 +4476,7 @@
         <v>17</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="S2"/>
       <c r="T2"/>
@@ -4483,7 +4486,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4491,13 +4494,13 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>28</v>
@@ -4509,13 +4512,13 @@
         <v>10</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="21" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="S3"/>
       <c r="T3"/>
@@ -4525,7 +4528,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4539,16 +4542,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L4" s="36">
         <v>666</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="N4" s="30" t="s">
         <v>32</v>
@@ -4559,7 +4562,7 @@
         <v>18</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="S4"/>
       <c r="T4"/>
@@ -4608,7 +4611,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4634,10 +4637,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4645,10 +4648,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
